--- a/STM32CubeIDE/EnvSensor/TouchGFX/assets/texts/texts.xlsx
+++ b/STM32CubeIDE/EnvSensor/TouchGFX/assets/texts/texts.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1756" uniqueCount="101">
   <si>
     <t xml:space="preserve">Font</t>
   </si>
@@ -189,6 +189,135 @@
   </si>
   <si>
     <t xml:space="preserve">SingleUseId5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Right</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;value&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Preassure</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Temperature</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0-9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">°C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;value&gt;°C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;value&gt;fsd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Humidity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CO2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;value&gt;9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Huge</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Red</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;value&gt;9531</t>
+  </si>
+  <si>
+    <t xml:space="preserve">segoeuil.ttf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">segoeui.ttf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">segoeuisl.ttf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R&amp;Upd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Upd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Clr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;value&gt;456</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Label</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unit</t>
   </si>
 </sst>
 </file>
@@ -1419,13 +1548,13 @@
         <v>38</v>
       </c>
       <c r="C4" t="s">
-        <v>39</v>
+        <v>87</v>
       </c>
       <c r="D4">
         <v>20</v>
       </c>
       <c r="E4">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F4" t="s">
         <v>17</v>
@@ -1455,20 +1584,24 @@
         <v>40</v>
       </c>
       <c r="C5" t="s">
-        <v>39</v>
+        <v>87</v>
       </c>
       <c r="D5">
         <v>40</v>
       </c>
       <c r="E5">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F5" t="s">
         <v>17</v>
       </c>
-      <c r="G5"/>
+      <c r="G5" t="s">
+        <v>67</v>
+      </c>
       <c r="H5"/>
-      <c r="I5"/>
+      <c r="I5" t="s">
+        <v>64</v>
+      </c>
       <c r="J5"/>
       <c r="L5" s="7" t="s">
         <v>1</v>
@@ -1486,23 +1619,27 @@
     </row>
     <row r="6" spans="2:16">
       <c r="B6" t="s">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="C6" t="s">
-        <v>39</v>
+        <v>87</v>
       </c>
       <c r="D6">
-        <v>10</v>
+        <v>64</v>
       </c>
       <c r="E6">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F6" t="s">
         <v>17</v>
       </c>
-      <c r="G6"/>
+      <c r="G6" t="s">
+        <v>67</v>
+      </c>
       <c r="H6"/>
-      <c r="I6"/>
+      <c r="I6" t="s">
+        <v>64</v>
+      </c>
       <c r="J6"/>
       <c r="L6" s="7" t="s">
         <v>2</v>
@@ -1519,24 +1656,9 @@
       <c r="P6" s="10"/>
     </row>
     <row r="7" spans="2:16">
-      <c r="B7" t="s">
-        <v>42</v>
-      </c>
-      <c r="C7" t="s">
-        <v>43</v>
-      </c>
-      <c r="D7">
-        <v>56</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7" t="s">
-        <v>17</v>
-      </c>
-      <c r="G7"/>
-      <c r="H7"/>
-      <c r="I7"/>
+      <c r="I7" t="s">
+        <v>64</v>
+      </c>
       <c r="J7"/>
       <c r="L7" s="7" t="s">
         <v>7</v>
@@ -1555,24 +1677,9 @@
       </c>
     </row>
     <row r="8" spans="2:16">
-      <c r="B8" t="s">
-        <v>54</v>
-      </c>
-      <c r="C8" t="s">
-        <v>55</v>
-      </c>
-      <c r="D8">
-        <v>52</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-      <c r="F8" t="s">
-        <v>17</v>
-      </c>
-      <c r="G8"/>
-      <c r="H8"/>
-      <c r="I8"/>
+      <c r="I8" t="s">
+        <v>64</v>
+      </c>
       <c r="J8"/>
       <c r="L8" s="7" t="s">
         <v>8</v>
@@ -1692,16 +1799,16 @@
         <v>44</v>
       </c>
       <c r="C4" t="s">
-        <v>42</v>
+        <v>82</v>
       </c>
       <c r="D4" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="E4" t="s">
         <v>46</v>
       </c>
       <c r="F4" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5">
@@ -1712,13 +1819,13 @@
         <v>38</v>
       </c>
       <c r="D5" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="E5" t="s">
         <v>46</v>
       </c>
       <c r="F5" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6">
@@ -1726,7 +1833,7 @@
         <v>51</v>
       </c>
       <c r="C6" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D6" t="s">
         <v>45</v>
@@ -1735,41 +1842,228 @@
         <v>46</v>
       </c>
       <c r="F6" t="s">
-        <v>56</v>
+        <v>83</v>
       </c>
     </row>
     <row r="7">
       <c r="B7" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="C7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D7" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="E7" t="s">
         <v>46</v>
       </c>
       <c r="F7" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
     </row>
     <row r="8">
       <c r="B8" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="C8" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="D8" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="E8" t="s">
         <v>46</v>
       </c>
       <c r="F8" t="s">
-        <v>56</v>
+        <v>59</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="B9" t="s">
+        <v>65</v>
+      </c>
+      <c r="C9" t="s">
+        <v>38</v>
+      </c>
+      <c r="D9" t="s">
+        <v>45</v>
+      </c>
+      <c r="E9" t="s">
+        <v>46</v>
+      </c>
+      <c r="F9" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="B10" t="s">
+        <v>69</v>
+      </c>
+      <c r="C10" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" t="s">
+        <v>45</v>
+      </c>
+      <c r="E10" t="s">
+        <v>46</v>
+      </c>
+      <c r="F10" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="B11" t="s">
+        <v>72</v>
+      </c>
+      <c r="C11" t="s">
+        <v>40</v>
+      </c>
+      <c r="D11" t="s">
+        <v>58</v>
+      </c>
+      <c r="E11" t="s">
+        <v>46</v>
+      </c>
+      <c r="F11" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="B12" t="s">
+        <v>73</v>
+      </c>
+      <c r="C12" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12" t="s">
+        <v>45</v>
+      </c>
+      <c r="E12" t="s">
+        <v>46</v>
+      </c>
+      <c r="F12" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="B13" t="s">
+        <v>75</v>
+      </c>
+      <c r="C13" t="s">
+        <v>38</v>
+      </c>
+      <c r="D13" t="s">
+        <v>58</v>
+      </c>
+      <c r="E13" t="s">
+        <v>46</v>
+      </c>
+      <c r="F13" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="B14" t="s">
+        <v>88</v>
+      </c>
+      <c r="C14" t="s">
+        <v>38</v>
+      </c>
+      <c r="D14" t="s">
+        <v>45</v>
+      </c>
+      <c r="E14" t="s">
+        <v>46</v>
+      </c>
+      <c r="F14" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="B15" t="s">
+        <v>90</v>
+      </c>
+      <c r="C15" t="s">
+        <v>38</v>
+      </c>
+      <c r="D15" t="s">
+        <v>45</v>
+      </c>
+      <c r="E15" t="s">
+        <v>46</v>
+      </c>
+      <c r="F15" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="B16" t="s">
+        <v>92</v>
+      </c>
+      <c r="C16" t="s">
+        <v>38</v>
+      </c>
+      <c r="D16" t="s">
+        <v>45</v>
+      </c>
+      <c r="E16" t="s">
+        <v>46</v>
+      </c>
+      <c r="F16" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="B17" t="s">
+        <v>95</v>
+      </c>
+      <c r="C17" t="s">
+        <v>38</v>
+      </c>
+      <c r="D17" t="s">
+        <v>58</v>
+      </c>
+      <c r="E17" t="s">
+        <v>46</v>
+      </c>
+      <c r="F17" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="B18" t="s">
+        <v>97</v>
+      </c>
+      <c r="C18" t="s">
+        <v>82</v>
+      </c>
+      <c r="D18" t="s">
+        <v>58</v>
+      </c>
+      <c r="E18" t="s">
+        <v>46</v>
+      </c>
+      <c r="F18" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="B19" t="s">
+        <v>99</v>
+      </c>
+      <c r="C19" t="s">
+        <v>38</v>
+      </c>
+      <c r="D19" t="s">
+        <v>45</v>
+      </c>
+      <c r="E19" t="s">
+        <v>46</v>
+      </c>
+      <c r="F19" t="s">
+        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/STM32CubeIDE/EnvSensor/TouchGFX/assets/texts/texts.xlsx
+++ b/STM32CubeIDE/EnvSensor/TouchGFX/assets/texts/texts.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1756" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3370" uniqueCount="111">
   <si>
     <t xml:space="preserve">Font</t>
   </si>
@@ -318,6 +318,36 @@
   </si>
   <si>
     <t xml:space="preserve">Unit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CO2_Unit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">??</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Value&lt;value&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Preassure_Unit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;value&gt;Value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Humidity_Unit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Temperature_Unit</t>
   </si>
 </sst>
 </file>
@@ -1548,7 +1578,7 @@
         <v>38</v>
       </c>
       <c r="C4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D4">
         <v>20</v>
@@ -1587,7 +1617,7 @@
         <v>87</v>
       </c>
       <c r="D5">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -1625,7 +1655,7 @@
         <v>87</v>
       </c>
       <c r="D6">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -1796,41 +1826,41 @@
     </row>
     <row r="4">
       <c r="B4" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="C4" t="s">
-        <v>82</v>
+        <v>38</v>
       </c>
       <c r="D4" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="E4" t="s">
         <v>46</v>
       </c>
       <c r="F4" t="s">
-        <v>59</v>
+        <v>83</v>
       </c>
     </row>
     <row r="5">
       <c r="B5" t="s">
-        <v>49</v>
+        <v>88</v>
       </c>
       <c r="C5" t="s">
         <v>38</v>
       </c>
       <c r="D5" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="E5" t="s">
         <v>46</v>
       </c>
       <c r="F5" t="s">
-        <v>62</v>
+        <v>89</v>
       </c>
     </row>
     <row r="6">
       <c r="B6" t="s">
-        <v>51</v>
+        <v>90</v>
       </c>
       <c r="C6" t="s">
         <v>38</v>
@@ -1842,32 +1872,32 @@
         <v>46</v>
       </c>
       <c r="F6" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
     </row>
     <row r="7">
       <c r="B7" t="s">
-        <v>60</v>
+        <v>92</v>
       </c>
       <c r="C7" t="s">
         <v>38</v>
       </c>
       <c r="D7" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="E7" t="s">
         <v>46</v>
       </c>
       <c r="F7" t="s">
-        <v>61</v>
+        <v>93</v>
       </c>
     </row>
     <row r="8">
       <c r="B8" t="s">
-        <v>63</v>
+        <v>95</v>
       </c>
       <c r="C8" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D8" t="s">
         <v>58</v>
@@ -1876,29 +1906,29 @@
         <v>46</v>
       </c>
       <c r="F8" t="s">
-        <v>59</v>
+        <v>96</v>
       </c>
     </row>
     <row r="9">
       <c r="B9" t="s">
-        <v>65</v>
+        <v>97</v>
       </c>
       <c r="C9" t="s">
-        <v>38</v>
+        <v>82</v>
       </c>
       <c r="D9" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="E9" t="s">
         <v>46</v>
       </c>
       <c r="F9" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10">
       <c r="B10" t="s">
-        <v>69</v>
+        <v>99</v>
       </c>
       <c r="C10" t="s">
         <v>38</v>
@@ -1910,15 +1940,15 @@
         <v>46</v>
       </c>
       <c r="F10" t="s">
-        <v>70</v>
+        <v>100</v>
       </c>
     </row>
     <row r="11">
       <c r="B11" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="C11" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D11" t="s">
         <v>58</v>
@@ -1927,12 +1957,12 @@
         <v>46</v>
       </c>
       <c r="F11" t="s">
-        <v>94</v>
+        <v>78</v>
       </c>
     </row>
     <row r="12">
       <c r="B12" t="s">
-        <v>73</v>
+        <v>101</v>
       </c>
       <c r="C12" t="s">
         <v>38</v>
@@ -1944,12 +1974,12 @@
         <v>46</v>
       </c>
       <c r="F12" t="s">
-        <v>74</v>
+        <v>102</v>
       </c>
     </row>
     <row r="13">
       <c r="B13" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="C13" t="s">
         <v>38</v>
@@ -1961,12 +1991,12 @@
         <v>46</v>
       </c>
       <c r="F13" t="s">
-        <v>76</v>
+        <v>61</v>
       </c>
     </row>
     <row r="14">
       <c r="B14" t="s">
-        <v>88</v>
+        <v>104</v>
       </c>
       <c r="C14" t="s">
         <v>38</v>
@@ -1978,66 +2008,66 @@
         <v>46</v>
       </c>
       <c r="F14" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
     </row>
     <row r="15">
       <c r="B15" t="s">
-        <v>90</v>
+        <v>105</v>
       </c>
       <c r="C15" t="s">
         <v>38</v>
       </c>
       <c r="D15" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="E15" t="s">
         <v>46</v>
       </c>
       <c r="F15" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
     </row>
     <row r="16">
       <c r="B16" t="s">
-        <v>92</v>
+        <v>106</v>
       </c>
       <c r="C16" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D16" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="E16" t="s">
         <v>46</v>
       </c>
       <c r="F16" t="s">
-        <v>93</v>
+        <v>59</v>
       </c>
     </row>
     <row r="17">
       <c r="B17" t="s">
-        <v>95</v>
+        <v>108</v>
       </c>
       <c r="C17" t="s">
         <v>38</v>
       </c>
       <c r="D17" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="E17" t="s">
         <v>46</v>
       </c>
       <c r="F17" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
     </row>
     <row r="18">
       <c r="B18" t="s">
-        <v>97</v>
+        <v>76</v>
       </c>
       <c r="C18" t="s">
-        <v>82</v>
+        <v>38</v>
       </c>
       <c r="D18" t="s">
         <v>58</v>
@@ -2046,12 +2076,12 @@
         <v>46</v>
       </c>
       <c r="F18" t="s">
-        <v>98</v>
+        <v>76</v>
       </c>
     </row>
     <row r="19">
       <c r="B19" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="C19" t="s">
         <v>38</v>
@@ -2063,9 +2093,45 @@
         <v>46</v>
       </c>
       <c r="F19" t="s">
-        <v>100</v>
-      </c>
-    </row>
+        <v>74</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="B20" t="s">
+        <v>62</v>
+      </c>
+      <c r="C20" t="s">
+        <v>38</v>
+      </c>
+      <c r="D20" t="s">
+        <v>58</v>
+      </c>
+      <c r="E20" t="s">
+        <v>46</v>
+      </c>
+      <c r="F20" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="B21" t="s">
+        <v>110</v>
+      </c>
+      <c r="C21" t="s">
+        <v>38</v>
+      </c>
+      <c r="D21" t="s">
+        <v>45</v>
+      </c>
+      <c r="E21" t="s">
+        <v>46</v>
+      </c>
+      <c r="F21" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="22"/>
+    <row r="23"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B2:E2"/>

--- a/STM32CubeIDE/EnvSensor/TouchGFX/assets/texts/texts.xlsx
+++ b/STM32CubeIDE/EnvSensor/TouchGFX/assets/texts/texts.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3370" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3502" uniqueCount="113">
   <si>
     <t xml:space="preserve">Font</t>
   </si>
@@ -348,6 +348,12 @@
   </si>
   <si>
     <t xml:space="preserve">Temperature_Unit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Buzz</t>
   </si>
 </sst>
 </file>
@@ -2130,7 +2136,23 @@
         <v>66</v>
       </c>
     </row>
-    <row r="22"/>
+    <row r="22">
+      <c r="B22" t="s">
+        <v>111</v>
+      </c>
+      <c r="C22" t="s">
+        <v>38</v>
+      </c>
+      <c r="D22" t="s">
+        <v>45</v>
+      </c>
+      <c r="E22" t="s">
+        <v>46</v>
+      </c>
+      <c r="F22" t="s">
+        <v>112</v>
+      </c>
+    </row>
     <row r="23"/>
   </sheetData>
   <mergeCells count="1">

--- a/STM32CubeIDE/EnvSensor/TouchGFX/assets/texts/texts.xlsx
+++ b/STM32CubeIDE/EnvSensor/TouchGFX/assets/texts/texts.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3502" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4006" uniqueCount="116">
   <si>
     <t xml:space="preserve">Font</t>
   </si>
@@ -354,6 +354,15 @@
   </si>
   <si>
     <t xml:space="preserve">Buzz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ppm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">%RH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">scd</t>
   </si>
 </sst>
 </file>
@@ -1878,7 +1887,7 @@
         <v>46</v>
       </c>
       <c r="F6" t="s">
-        <v>91</v>
+        <v>115</v>
       </c>
     </row>
     <row r="7">
@@ -1980,7 +1989,7 @@
         <v>46</v>
       </c>
       <c r="F12" t="s">
-        <v>102</v>
+        <v>113</v>
       </c>
     </row>
     <row r="13">
@@ -2099,7 +2108,7 @@
         <v>46</v>
       </c>
       <c r="F19" t="s">
-        <v>74</v>
+        <v>114</v>
       </c>
     </row>
     <row r="20">
@@ -2136,23 +2145,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="22">
-      <c r="B22" t="s">
-        <v>111</v>
-      </c>
-      <c r="C22" t="s">
-        <v>38</v>
-      </c>
-      <c r="D22" t="s">
-        <v>45</v>
-      </c>
-      <c r="E22" t="s">
-        <v>46</v>
-      </c>
-      <c r="F22" t="s">
-        <v>112</v>
-      </c>
-    </row>
+    <row r="22"/>
     <row r="23"/>
   </sheetData>
   <mergeCells count="1">

--- a/STM32CubeIDE/EnvSensor/TouchGFX/assets/texts/texts.xlsx
+++ b/STM32CubeIDE/EnvSensor/TouchGFX/assets/texts/texts.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4006" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4528" uniqueCount="123">
   <si>
     <t xml:space="preserve">Font</t>
   </si>
@@ -363,6 +363,27 @@
   </si>
   <si>
     <t xml:space="preserve">scd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">init</t>
+  </si>
+  <si>
+    <t xml:space="preserve">read</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sleep</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Center</t>
+  </si>
+  <si>
+    <t xml:space="preserve">display</t>
+  </si>
+  <si>
+    <t xml:space="preserve">start</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hPa</t>
   </si>
 </sst>
 </file>
@@ -1870,7 +1891,7 @@
         <v>46</v>
       </c>
       <c r="F5" t="s">
-        <v>89</v>
+        <v>121</v>
       </c>
     </row>
     <row r="6">
@@ -1887,7 +1908,7 @@
         <v>46</v>
       </c>
       <c r="F6" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="7">
@@ -1904,7 +1925,7 @@
         <v>46</v>
       </c>
       <c r="F7" t="s">
-        <v>93</v>
+        <v>118</v>
       </c>
     </row>
     <row r="8">
@@ -2023,7 +2044,7 @@
         <v>46</v>
       </c>
       <c r="F14" t="s">
-        <v>70</v>
+        <v>122</v>
       </c>
     </row>
     <row r="15">

--- a/STM32CubeIDE/EnvSensor/TouchGFX/assets/texts/texts.xlsx
+++ b/STM32CubeIDE/EnvSensor/TouchGFX/assets/texts/texts.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4528" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4906" uniqueCount="123">
   <si>
     <t xml:space="preserve">Font</t>
   </si>
@@ -1653,7 +1653,7 @@
         <v>87</v>
       </c>
       <c r="D5">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -1691,7 +1691,7 @@
         <v>87</v>
       </c>
       <c r="D6">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="E6">
         <v>1</v>

--- a/STM32CubeIDE/EnvSensor/TouchGFX/assets/texts/texts.xlsx
+++ b/STM32CubeIDE/EnvSensor/TouchGFX/assets/texts/texts.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4906" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5172" uniqueCount="126">
   <si>
     <t xml:space="preserve">Font</t>
   </si>
@@ -384,6 +384,15 @@
   </si>
   <si>
     <t xml:space="preserve">hPa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vdd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;value&gt;V</t>
   </si>
 </sst>
 </file>
@@ -1625,9 +1634,13 @@
       <c r="F4" t="s">
         <v>17</v>
       </c>
-      <c r="G4"/>
+      <c r="G4" t="s">
+        <v>67</v>
+      </c>
       <c r="H4"/>
-      <c r="I4"/>
+      <c r="I4" t="s">
+        <v>64</v>
+      </c>
       <c r="J4"/>
       <c r="L4" s="4" t="s">
         <v>9</v>
@@ -1862,7 +1875,7 @@
     </row>
     <row r="4">
       <c r="B4" t="s">
-        <v>51</v>
+        <v>88</v>
       </c>
       <c r="C4" t="s">
         <v>38</v>
@@ -1874,12 +1887,12 @@
         <v>46</v>
       </c>
       <c r="F4" t="s">
-        <v>83</v>
+        <v>121</v>
       </c>
     </row>
     <row r="5">
       <c r="B5" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C5" t="s">
         <v>38</v>
@@ -1891,12 +1904,12 @@
         <v>46</v>
       </c>
       <c r="F5" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
     </row>
     <row r="6">
       <c r="B6" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C6" t="s">
         <v>38</v>
@@ -1908,32 +1921,32 @@
         <v>46</v>
       </c>
       <c r="F6" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="7">
       <c r="B7" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="C7" t="s">
         <v>38</v>
       </c>
       <c r="D7" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="E7" t="s">
         <v>46</v>
       </c>
       <c r="F7" t="s">
-        <v>118</v>
+        <v>96</v>
       </c>
     </row>
     <row r="8">
       <c r="B8" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C8" t="s">
-        <v>38</v>
+        <v>82</v>
       </c>
       <c r="D8" t="s">
         <v>58</v>
@@ -1942,117 +1955,117 @@
         <v>46</v>
       </c>
       <c r="F8" t="s">
-        <v>96</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9">
       <c r="B9" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C9" t="s">
-        <v>82</v>
+        <v>38</v>
       </c>
       <c r="D9" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="E9" t="s">
         <v>46</v>
       </c>
       <c r="F9" t="s">
-        <v>59</v>
+        <v>100</v>
       </c>
     </row>
     <row r="10">
       <c r="B10" t="s">
-        <v>99</v>
+        <v>78</v>
       </c>
       <c r="C10" t="s">
         <v>38</v>
       </c>
       <c r="D10" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="E10" t="s">
         <v>46</v>
       </c>
       <c r="F10" t="s">
-        <v>100</v>
+        <v>78</v>
       </c>
     </row>
     <row r="11">
       <c r="B11" t="s">
-        <v>78</v>
+        <v>101</v>
       </c>
       <c r="C11" t="s">
         <v>38</v>
       </c>
       <c r="D11" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="E11" t="s">
         <v>46</v>
       </c>
       <c r="F11" t="s">
-        <v>78</v>
+        <v>113</v>
       </c>
     </row>
     <row r="12">
       <c r="B12" t="s">
-        <v>101</v>
+        <v>61</v>
       </c>
       <c r="C12" t="s">
         <v>38</v>
       </c>
       <c r="D12" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="E12" t="s">
         <v>46</v>
       </c>
       <c r="F12" t="s">
-        <v>113</v>
+        <v>61</v>
       </c>
     </row>
     <row r="13">
       <c r="B13" t="s">
-        <v>61</v>
+        <v>104</v>
       </c>
       <c r="C13" t="s">
         <v>38</v>
       </c>
       <c r="D13" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="E13" t="s">
         <v>46</v>
       </c>
       <c r="F13" t="s">
-        <v>61</v>
+        <v>122</v>
       </c>
     </row>
     <row r="14">
       <c r="B14" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C14" t="s">
         <v>38</v>
       </c>
       <c r="D14" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="E14" t="s">
         <v>46</v>
       </c>
       <c r="F14" t="s">
-        <v>122</v>
+        <v>96</v>
       </c>
     </row>
     <row r="15">
       <c r="B15" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C15" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D15" t="s">
         <v>58</v>
@@ -2061,112 +2074,128 @@
         <v>46</v>
       </c>
       <c r="F15" t="s">
-        <v>96</v>
+        <v>59</v>
       </c>
     </row>
     <row r="16">
       <c r="B16" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C16" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D16" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="E16" t="s">
         <v>46</v>
       </c>
       <c r="F16" t="s">
-        <v>59</v>
+        <v>100</v>
       </c>
     </row>
     <row r="17">
       <c r="B17" t="s">
-        <v>108</v>
+        <v>76</v>
       </c>
       <c r="C17" t="s">
         <v>38</v>
       </c>
       <c r="D17" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="E17" t="s">
         <v>46</v>
       </c>
       <c r="F17" t="s">
-        <v>100</v>
+        <v>76</v>
       </c>
     </row>
     <row r="18">
       <c r="B18" t="s">
-        <v>76</v>
+        <v>109</v>
       </c>
       <c r="C18" t="s">
         <v>38</v>
       </c>
       <c r="D18" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="E18" t="s">
         <v>46</v>
       </c>
       <c r="F18" t="s">
-        <v>76</v>
+        <v>114</v>
       </c>
     </row>
     <row r="19">
       <c r="B19" t="s">
-        <v>109</v>
+        <v>62</v>
       </c>
       <c r="C19" t="s">
         <v>38</v>
       </c>
       <c r="D19" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="E19" t="s">
         <v>46</v>
       </c>
       <c r="F19" t="s">
-        <v>114</v>
+        <v>62</v>
       </c>
     </row>
     <row r="20">
       <c r="B20" t="s">
-        <v>62</v>
+        <v>110</v>
       </c>
       <c r="C20" t="s">
         <v>38</v>
       </c>
       <c r="D20" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="E20" t="s">
         <v>46</v>
       </c>
       <c r="F20" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
     </row>
     <row r="21">
       <c r="B21" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C21" t="s">
         <v>38</v>
       </c>
       <c r="D21" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="E21" t="s">
         <v>46</v>
       </c>
       <c r="F21" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="22"/>
+        <v>123</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="B22" t="s">
+        <v>124</v>
+      </c>
+      <c r="C22" t="s">
+        <v>38</v>
+      </c>
+      <c r="D22" t="s">
+        <v>58</v>
+      </c>
+      <c r="E22" t="s">
+        <v>46</v>
+      </c>
+      <c r="F22" t="s">
+        <v>125</v>
+      </c>
+    </row>
     <row r="23"/>
   </sheetData>
   <mergeCells count="1">

--- a/STM32CubeIDE/EnvSensor/TouchGFX/assets/texts/texts.xlsx
+++ b/STM32CubeIDE/EnvSensor/TouchGFX/assets/texts/texts.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5172" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5848" uniqueCount="129">
   <si>
     <t xml:space="preserve">Font</t>
   </si>
@@ -393,6 +393,15 @@
   </si>
   <si>
     <t xml:space="preserve">&lt;value&gt;V</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Temp.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">refresh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId27</t>
   </si>
 </sst>
 </file>
@@ -1626,10 +1635,10 @@
         <v>86</v>
       </c>
       <c r="D4">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4" t="s">
         <v>17</v>
@@ -1666,10 +1675,10 @@
         <v>87</v>
       </c>
       <c r="D5">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5" t="s">
         <v>17</v>
@@ -1704,10 +1713,10 @@
         <v>87</v>
       </c>
       <c r="D6">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6" t="s">
         <v>17</v>
@@ -1898,13 +1907,13 @@
         <v>38</v>
       </c>
       <c r="D5" t="s">
-        <v>45</v>
+        <v>119</v>
       </c>
       <c r="E5" t="s">
         <v>46</v>
       </c>
       <c r="F5" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
     </row>
     <row r="6">
@@ -2142,7 +2151,7 @@
         <v>46</v>
       </c>
       <c r="F19" t="s">
-        <v>62</v>
+        <v>126</v>
       </c>
     </row>
     <row r="20">
@@ -2196,7 +2205,23 @@
         <v>125</v>
       </c>
     </row>
-    <row r="23"/>
+    <row r="23">
+      <c r="B23" t="s">
+        <v>128</v>
+      </c>
+      <c r="C23" t="s">
+        <v>38</v>
+      </c>
+      <c r="D23" t="s">
+        <v>45</v>
+      </c>
+      <c r="E23" t="s">
+        <v>46</v>
+      </c>
+      <c r="F23" t="s">
+        <v>117</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B2:E2"/>

--- a/STM32CubeIDE/EnvSensor/TouchGFX/assets/texts/texts.xlsx
+++ b/STM32CubeIDE/EnvSensor/TouchGFX/assets/texts/texts.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5848" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6476" uniqueCount="134">
   <si>
     <t xml:space="preserve">Font</t>
   </si>
@@ -402,6 +402,21 @@
   </si>
   <si>
     <t xml:space="preserve">SingleUseId27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tiny</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">.kMGB</t>
   </si>
 </sst>
 </file>
@@ -1744,6 +1759,25 @@
       <c r="P6" s="10"/>
     </row>
     <row r="7" spans="2:16">
+      <c r="B7" t="s">
+        <v>129</v>
+      </c>
+      <c r="C7" t="s">
+        <v>86</v>
+      </c>
+      <c r="D7">
+        <v>18</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G7" t="s">
+        <v>133</v>
+      </c>
+      <c r="H7"/>
       <c r="I7" t="s">
         <v>64</v>
       </c>
@@ -1887,7 +1921,7 @@
         <v>88</v>
       </c>
       <c r="C4" t="s">
-        <v>38</v>
+        <v>129</v>
       </c>
       <c r="D4" t="s">
         <v>45</v>
@@ -1904,7 +1938,7 @@
         <v>90</v>
       </c>
       <c r="C5" t="s">
-        <v>38</v>
+        <v>129</v>
       </c>
       <c r="D5" t="s">
         <v>119</v>
@@ -1921,10 +1955,10 @@
         <v>92</v>
       </c>
       <c r="C6" t="s">
-        <v>38</v>
+        <v>129</v>
       </c>
       <c r="D6" t="s">
-        <v>45</v>
+        <v>119</v>
       </c>
       <c r="E6" t="s">
         <v>46</v>
@@ -2176,7 +2210,7 @@
         <v>111</v>
       </c>
       <c r="C21" t="s">
-        <v>38</v>
+        <v>129</v>
       </c>
       <c r="D21" t="s">
         <v>58</v>
@@ -2193,7 +2227,7 @@
         <v>124</v>
       </c>
       <c r="C22" t="s">
-        <v>38</v>
+        <v>129</v>
       </c>
       <c r="D22" t="s">
         <v>58</v>
@@ -2210,16 +2244,50 @@
         <v>128</v>
       </c>
       <c r="C23" t="s">
-        <v>38</v>
+        <v>129</v>
       </c>
       <c r="D23" t="s">
-        <v>45</v>
+        <v>119</v>
       </c>
       <c r="E23" t="s">
         <v>46</v>
       </c>
       <c r="F23" t="s">
         <v>117</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="B24" t="s">
+        <v>130</v>
+      </c>
+      <c r="C24" t="s">
+        <v>129</v>
+      </c>
+      <c r="D24" t="s">
+        <v>58</v>
+      </c>
+      <c r="E24" t="s">
+        <v>46</v>
+      </c>
+      <c r="F24" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="B25" t="s">
+        <v>132</v>
+      </c>
+      <c r="C25" t="s">
+        <v>129</v>
+      </c>
+      <c r="D25" t="s">
+        <v>58</v>
+      </c>
+      <c r="E25" t="s">
+        <v>46</v>
+      </c>
+      <c r="F25" t="s">
+        <v>59</v>
       </c>
     </row>
   </sheetData>

--- a/STM32CubeIDE/EnvSensor/TouchGFX/assets/texts/texts.xlsx
+++ b/STM32CubeIDE/EnvSensor/TouchGFX/assets/texts/texts.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6476" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6959" uniqueCount="135">
   <si>
     <t xml:space="preserve">Font</t>
   </si>
@@ -417,6 +417,9 @@
   </si>
   <si>
     <t xml:space="preserve">.kMGB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Err</t>
   </si>
 </sst>
 </file>
@@ -2290,6 +2293,7 @@
         <v>59</v>
       </c>
     </row>
+    <row r="26"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B2:E2"/>

--- a/STM32CubeIDE/EnvSensor/TouchGFX/assets/texts/texts.xlsx
+++ b/STM32CubeIDE/EnvSensor/TouchGFX/assets/texts/texts.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6959" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7313" uniqueCount="144">
   <si>
     <t xml:space="preserve">Font</t>
   </si>
@@ -420,6 +420,33 @@
   </si>
   <si>
     <t xml:space="preserve">Err</t>
+  </si>
+  <si>
+    <t xml:space="preserve">monospace</t>
+  </si>
+  <si>
+    <t xml:space="preserve">consola.ttf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">.:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">File: &lt;value&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">file</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">back</t>
   </si>
 </sst>
 </file>
@@ -1802,6 +1829,25 @@
       </c>
     </row>
     <row r="8" spans="2:16">
+      <c r="B8" t="s">
+        <v>135</v>
+      </c>
+      <c r="C8" t="s">
+        <v>136</v>
+      </c>
+      <c r="D8">
+        <v>16</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G8" t="s">
+        <v>137</v>
+      </c>
+      <c r="H8"/>
       <c r="I8" t="s">
         <v>64</v>
       </c>
@@ -2256,7 +2302,7 @@
         <v>46</v>
       </c>
       <c r="F23" t="s">
-        <v>117</v>
+        <v>141</v>
       </c>
     </row>
     <row r="24">
@@ -2293,7 +2339,57 @@
         <v>59</v>
       </c>
     </row>
-    <row r="26"/>
+    <row r="26">
+      <c r="B26" t="s">
+        <v>138</v>
+      </c>
+      <c r="C26" t="s">
+        <v>38</v>
+      </c>
+      <c r="D26" t="s">
+        <v>45</v>
+      </c>
+      <c r="E26" t="s">
+        <v>46</v>
+      </c>
+      <c r="F26" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="B27" t="s">
+        <v>140</v>
+      </c>
+      <c r="C27" t="s">
+        <v>135</v>
+      </c>
+      <c r="D27" t="s">
+        <v>45</v>
+      </c>
+      <c r="E27" t="s">
+        <v>46</v>
+      </c>
+      <c r="F27" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="B28" t="s">
+        <v>142</v>
+      </c>
+      <c r="C28" t="s">
+        <v>129</v>
+      </c>
+      <c r="D28" t="s">
+        <v>119</v>
+      </c>
+      <c r="E28" t="s">
+        <v>46</v>
+      </c>
+      <c r="F28" t="s">
+        <v>143</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B2:E2"/>

--- a/STM32CubeIDE/EnvSensor/TouchGFX/assets/texts/texts.xlsx
+++ b/STM32CubeIDE/EnvSensor/TouchGFX/assets/texts/texts.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7313" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8696" uniqueCount="163">
   <si>
     <t xml:space="preserve">Font</t>
   </si>
@@ -447,6 +447,63 @@
   </si>
   <si>
     <t xml:space="preserve">back</t>
+  </si>
+  <si>
+    <t xml:space="preserve">.:,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">.:, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">. :,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MonospaceTiny</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MonospaceLarge</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId33</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-01-17 14:57</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId34</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Setup time and date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId35</t>
+  </si>
+  <si>
+    <t xml:space="preserve">+10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId36</t>
+  </si>
+  <si>
+    <t xml:space="preserve">+1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId37</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Next</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId38</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Done</t>
+  </si>
+  <si>
+    <t xml:space="preserve">settings</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId40</t>
   </si>
 </sst>
 </file>
@@ -1830,7 +1887,7 @@
     </row>
     <row r="8" spans="2:16">
       <c r="B8" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="C8" t="s">
         <v>136</v>
@@ -1845,7 +1902,7 @@
         <v>17</v>
       </c>
       <c r="G8" t="s">
-        <v>137</v>
+        <v>146</v>
       </c>
       <c r="H8"/>
       <c r="I8" t="s">
@@ -1867,6 +1924,25 @@
       <c r="P8" s="10"/>
     </row>
     <row r="9" spans="2:16">
+      <c r="B9" t="s">
+        <v>148</v>
+      </c>
+      <c r="C9" t="s">
+        <v>136</v>
+      </c>
+      <c r="D9">
+        <v>36</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G9"/>
+      <c r="H9"/>
+      <c r="I9"/>
+      <c r="J9"/>
       <c r="L9" s="11" t="s">
         <v>6</v>
       </c>
@@ -2302,7 +2378,7 @@
         <v>46</v>
       </c>
       <c r="F23" t="s">
-        <v>141</v>
+        <v>161</v>
       </c>
     </row>
     <row r="24">
@@ -2361,7 +2437,7 @@
         <v>140</v>
       </c>
       <c r="C27" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="D27" t="s">
         <v>45</v>
@@ -2370,7 +2446,7 @@
         <v>46</v>
       </c>
       <c r="F27" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
     </row>
     <row r="28">
@@ -2390,6 +2466,109 @@
         <v>143</v>
       </c>
     </row>
+    <row r="29">
+      <c r="B29" t="s">
+        <v>149</v>
+      </c>
+      <c r="C29" t="s">
+        <v>148</v>
+      </c>
+      <c r="D29" t="s">
+        <v>45</v>
+      </c>
+      <c r="E29" t="s">
+        <v>46</v>
+      </c>
+      <c r="F29" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="B30" t="s">
+        <v>151</v>
+      </c>
+      <c r="C30" t="s">
+        <v>38</v>
+      </c>
+      <c r="D30" t="s">
+        <v>45</v>
+      </c>
+      <c r="E30" t="s">
+        <v>46</v>
+      </c>
+      <c r="F30" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="B31" t="s">
+        <v>153</v>
+      </c>
+      <c r="C31" t="s">
+        <v>129</v>
+      </c>
+      <c r="D31" t="s">
+        <v>45</v>
+      </c>
+      <c r="E31" t="s">
+        <v>46</v>
+      </c>
+      <c r="F31" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="B32" t="s">
+        <v>155</v>
+      </c>
+      <c r="C32" t="s">
+        <v>129</v>
+      </c>
+      <c r="D32" t="s">
+        <v>119</v>
+      </c>
+      <c r="E32" t="s">
+        <v>46</v>
+      </c>
+      <c r="F32" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="B33" t="s">
+        <v>157</v>
+      </c>
+      <c r="C33" t="s">
+        <v>129</v>
+      </c>
+      <c r="D33" t="s">
+        <v>119</v>
+      </c>
+      <c r="E33" t="s">
+        <v>46</v>
+      </c>
+      <c r="F33" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="B34" t="s">
+        <v>159</v>
+      </c>
+      <c r="C34" t="s">
+        <v>129</v>
+      </c>
+      <c r="D34" t="s">
+        <v>119</v>
+      </c>
+      <c r="E34" t="s">
+        <v>46</v>
+      </c>
+      <c r="F34" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="35"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B2:E2"/>

--- a/STM32CubeIDE/EnvSensor/TouchGFX/assets/texts/texts.xlsx
+++ b/STM32CubeIDE/EnvSensor/TouchGFX/assets/texts/texts.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8696" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9365" uniqueCount="166">
   <si>
     <t xml:space="preserve">Font</t>
   </si>
@@ -504,6 +504,15 @@
   </si>
   <si>
     <t xml:space="preserve">SingleUseId40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">charts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId39</t>
+  </si>
+  <si>
+    <t xml:space="preserve">xxx</t>
   </si>
 </sst>
 </file>
@@ -2055,7 +2064,7 @@
         <v>46</v>
       </c>
       <c r="F4" t="s">
-        <v>121</v>
+        <v>163</v>
       </c>
     </row>
     <row r="5">
@@ -2463,7 +2472,7 @@
         <v>46</v>
       </c>
       <c r="F28" t="s">
-        <v>143</v>
+        <v>165</v>
       </c>
     </row>
     <row r="29">
@@ -2568,7 +2577,23 @@
         <v>160</v>
       </c>
     </row>
-    <row r="35"/>
+    <row r="35">
+      <c r="B35" t="s">
+        <v>164</v>
+      </c>
+      <c r="C35" t="s">
+        <v>129</v>
+      </c>
+      <c r="D35" t="s">
+        <v>119</v>
+      </c>
+      <c r="E35" t="s">
+        <v>46</v>
+      </c>
+      <c r="F35" t="s">
+        <v>143</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B2:E2"/>

--- a/STM32CubeIDE/EnvSensor/TouchGFX/assets/texts/texts.xlsx
+++ b/STM32CubeIDE/EnvSensor/TouchGFX/assets/texts/texts.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9365" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10269" uniqueCount="169">
   <si>
     <t xml:space="preserve">Font</t>
   </si>
@@ -513,6 +513,15 @@
   </si>
   <si>
     <t xml:space="preserve">xxx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-01-17 14:57&lt;value&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">: -</t>
+  </si>
+  <si>
+    <t xml:space="preserve">. :-</t>
   </si>
 </sst>
 </file>
@@ -1948,9 +1957,13 @@
       <c r="F9" t="s">
         <v>17</v>
       </c>
-      <c r="G9"/>
+      <c r="G9" t="s">
+        <v>168</v>
+      </c>
       <c r="H9"/>
-      <c r="I9"/>
+      <c r="I9" t="s">
+        <v>64</v>
+      </c>
       <c r="J9"/>
       <c r="L9" s="11" t="s">
         <v>6</v>
@@ -2489,7 +2502,7 @@
         <v>46</v>
       </c>
       <c r="F29" t="s">
-        <v>150</v>
+        <v>59</v>
       </c>
     </row>
     <row r="30">

--- a/STM32CubeIDE/EnvSensor/TouchGFX/assets/texts/texts.xlsx
+++ b/STM32CubeIDE/EnvSensor/TouchGFX/assets/texts/texts.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10269" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10502" uniqueCount="169">
   <si>
     <t xml:space="preserve">Font</t>
   </si>
@@ -2607,6 +2607,23 @@
         <v>143</v>
       </c>
     </row>
+    <row r="36">
+      <c r="B36" t="s">
+        <v>162</v>
+      </c>
+      <c r="C36" t="s">
+        <v>129</v>
+      </c>
+      <c r="D36" t="s">
+        <v>119</v>
+      </c>
+      <c r="E36" t="s">
+        <v>46</v>
+      </c>
+      <c r="F36" t="s">
+        <v>143</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B2:E2"/>

--- a/STM32CubeIDE/EnvSensor/TouchGFX/assets/texts/texts.xlsx
+++ b/STM32CubeIDE/EnvSensor/TouchGFX/assets/texts/texts.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10502" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10795" uniqueCount="182">
   <si>
     <t xml:space="preserve">Font</t>
   </si>
@@ -522,6 +522,45 @@
   </si>
   <si>
     <t xml:space="preserve">. :-</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId41</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId42</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId43</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId44</t>
+  </si>
+  <si>
+    <t xml:space="preserve">03.23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId45</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId46</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1032.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId47</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId48</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId49</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId50</t>
   </si>
 </sst>
 </file>
@@ -2624,6 +2663,176 @@
         <v>143</v>
       </c>
     </row>
+    <row r="37">
+      <c r="B37" t="s">
+        <v>169</v>
+      </c>
+      <c r="C37" t="s">
+        <v>129</v>
+      </c>
+      <c r="D37" t="s">
+        <v>119</v>
+      </c>
+      <c r="E37" t="s">
+        <v>46</v>
+      </c>
+      <c r="F37" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="B38" t="s">
+        <v>170</v>
+      </c>
+      <c r="C38" t="s">
+        <v>129</v>
+      </c>
+      <c r="D38" t="s">
+        <v>119</v>
+      </c>
+      <c r="E38" t="s">
+        <v>46</v>
+      </c>
+      <c r="F38" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="B39" t="s">
+        <v>172</v>
+      </c>
+      <c r="C39" t="s">
+        <v>129</v>
+      </c>
+      <c r="D39" t="s">
+        <v>119</v>
+      </c>
+      <c r="E39" t="s">
+        <v>46</v>
+      </c>
+      <c r="F39" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="B40" t="s">
+        <v>173</v>
+      </c>
+      <c r="C40" t="s">
+        <v>129</v>
+      </c>
+      <c r="D40" t="s">
+        <v>119</v>
+      </c>
+      <c r="E40" t="s">
+        <v>46</v>
+      </c>
+      <c r="F40" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="B41" t="s">
+        <v>175</v>
+      </c>
+      <c r="C41" t="s">
+        <v>129</v>
+      </c>
+      <c r="D41" t="s">
+        <v>119</v>
+      </c>
+      <c r="E41" t="s">
+        <v>46</v>
+      </c>
+      <c r="F41" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="B42" t="s">
+        <v>176</v>
+      </c>
+      <c r="C42" t="s">
+        <v>129</v>
+      </c>
+      <c r="D42" t="s">
+        <v>119</v>
+      </c>
+      <c r="E42" t="s">
+        <v>46</v>
+      </c>
+      <c r="F42" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="B43" t="s">
+        <v>178</v>
+      </c>
+      <c r="C43" t="s">
+        <v>129</v>
+      </c>
+      <c r="D43" t="s">
+        <v>119</v>
+      </c>
+      <c r="E43" t="s">
+        <v>46</v>
+      </c>
+      <c r="F43" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="B44" t="s">
+        <v>179</v>
+      </c>
+      <c r="C44" t="s">
+        <v>129</v>
+      </c>
+      <c r="D44" t="s">
+        <v>119</v>
+      </c>
+      <c r="E44" t="s">
+        <v>46</v>
+      </c>
+      <c r="F44" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="B45" t="s">
+        <v>180</v>
+      </c>
+      <c r="C45" t="s">
+        <v>129</v>
+      </c>
+      <c r="D45" t="s">
+        <v>119</v>
+      </c>
+      <c r="E45" t="s">
+        <v>46</v>
+      </c>
+      <c r="F45" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="B46" t="s">
+        <v>181</v>
+      </c>
+      <c r="C46" t="s">
+        <v>129</v>
+      </c>
+      <c r="D46" t="s">
+        <v>119</v>
+      </c>
+      <c r="E46" t="s">
+        <v>46</v>
+      </c>
+      <c r="F46" t="s">
+        <v>177</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B2:E2"/>

--- a/STM32CubeIDE/EnvSensor/TouchGFX/assets/texts/texts.xlsx
+++ b/STM32CubeIDE/EnvSensor/TouchGFX/assets/texts/texts.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10795" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11088" uniqueCount="182">
   <si>
     <t xml:space="preserve">Font</t>
   </si>
@@ -2762,7 +2762,7 @@
         <v>46</v>
       </c>
       <c r="F42" t="s">
-        <v>177</v>
+        <v>59</v>
       </c>
     </row>
     <row r="43">
@@ -2779,7 +2779,7 @@
         <v>46</v>
       </c>
       <c r="F43" t="s">
-        <v>177</v>
+        <v>59</v>
       </c>
     </row>
     <row r="44">
@@ -2796,7 +2796,7 @@
         <v>46</v>
       </c>
       <c r="F44" t="s">
-        <v>177</v>
+        <v>59</v>
       </c>
     </row>
     <row r="45">
@@ -2813,7 +2813,7 @@
         <v>46</v>
       </c>
       <c r="F45" t="s">
-        <v>177</v>
+        <v>59</v>
       </c>
     </row>
     <row r="46">
@@ -2830,7 +2830,7 @@
         <v>46</v>
       </c>
       <c r="F46" t="s">
-        <v>177</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>

--- a/STM32CubeIDE/EnvSensor/TouchGFX/assets/texts/texts.xlsx
+++ b/STM32CubeIDE/EnvSensor/TouchGFX/assets/texts/texts.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11088" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11674" uniqueCount="183">
   <si>
     <t xml:space="preserve">Font</t>
   </si>
@@ -561,6 +561,9 @@
   </si>
   <si>
     <t xml:space="preserve">SingleUseId50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">.kMGB:</t>
   </si>
 </sst>
 </file>
@@ -1919,7 +1922,7 @@
         <v>17</v>
       </c>
       <c r="G7" t="s">
-        <v>133</v>
+        <v>182</v>
       </c>
       <c r="H7"/>
       <c r="I7" t="s">
@@ -2694,7 +2697,7 @@
         <v>46</v>
       </c>
       <c r="F38" t="s">
-        <v>171</v>
+        <v>59</v>
       </c>
     </row>
     <row r="39">
@@ -2711,7 +2714,7 @@
         <v>46</v>
       </c>
       <c r="F39" t="s">
-        <v>171</v>
+        <v>59</v>
       </c>
     </row>
     <row r="40">
@@ -2728,7 +2731,7 @@
         <v>46</v>
       </c>
       <c r="F40" t="s">
-        <v>174</v>
+        <v>59</v>
       </c>
     </row>
     <row r="41">
@@ -2745,7 +2748,7 @@
         <v>46</v>
       </c>
       <c r="F41" t="s">
-        <v>171</v>
+        <v>59</v>
       </c>
     </row>
     <row r="42">

--- a/STM32CubeIDE/EnvSensor/TouchGFX/assets/texts/texts.xlsx
+++ b/STM32CubeIDE/EnvSensor/TouchGFX/assets/texts/texts.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11674" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12954" uniqueCount="195">
   <si>
     <t xml:space="preserve">Font</t>
   </si>
@@ -564,6 +564,42 @@
   </si>
   <si>
     <t xml:space="preserve">.kMGB:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pressure</t>
+  </si>
+  <si>
+    <t xml:space="preserve">co2Tiny</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CO2 [ppm]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pressureTiny</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pressure [hPa]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">temperatureTiny</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Temperature [°C]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">humidityTiny</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Humidity [%RH]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Title</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId51</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sensor</t>
   </si>
 </sst>
 </file>
@@ -2255,7 +2291,7 @@
         <v>46</v>
       </c>
       <c r="F12" t="s">
-        <v>61</v>
+        <v>183</v>
       </c>
     </row>
     <row r="13">
@@ -2680,7 +2716,7 @@
         <v>46</v>
       </c>
       <c r="F37" t="s">
-        <v>78</v>
+        <v>192</v>
       </c>
     </row>
     <row r="38">
@@ -2834,6 +2870,91 @@
       </c>
       <c r="F46" t="s">
         <v>59</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="B47" t="s">
+        <v>184</v>
+      </c>
+      <c r="C47" t="s">
+        <v>129</v>
+      </c>
+      <c r="D47" t="s">
+        <v>119</v>
+      </c>
+      <c r="E47" t="s">
+        <v>46</v>
+      </c>
+      <c r="F47" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="B48" t="s">
+        <v>186</v>
+      </c>
+      <c r="C48" t="s">
+        <v>129</v>
+      </c>
+      <c r="D48" t="s">
+        <v>119</v>
+      </c>
+      <c r="E48" t="s">
+        <v>46</v>
+      </c>
+      <c r="F48" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="B49" t="s">
+        <v>188</v>
+      </c>
+      <c r="C49" t="s">
+        <v>129</v>
+      </c>
+      <c r="D49" t="s">
+        <v>119</v>
+      </c>
+      <c r="E49" t="s">
+        <v>46</v>
+      </c>
+      <c r="F49" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="B50" t="s">
+        <v>190</v>
+      </c>
+      <c r="C50" t="s">
+        <v>129</v>
+      </c>
+      <c r="D50" t="s">
+        <v>119</v>
+      </c>
+      <c r="E50" t="s">
+        <v>46</v>
+      </c>
+      <c r="F50" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="B51" t="s">
+        <v>193</v>
+      </c>
+      <c r="C51" t="s">
+        <v>129</v>
+      </c>
+      <c r="D51" t="s">
+        <v>45</v>
+      </c>
+      <c r="E51" t="s">
+        <v>46</v>
+      </c>
+      <c r="F51" t="s">
+        <v>194</v>
       </c>
     </row>
   </sheetData>

--- a/STM32CubeIDE/EnvSensor/TouchGFX/assets/texts/texts.xlsx
+++ b/STM32CubeIDE/EnvSensor/TouchGFX/assets/texts/texts.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12954" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13612" uniqueCount="197">
   <si>
     <t xml:space="preserve">Font</t>
   </si>
@@ -600,6 +600,12 @@
   </si>
   <si>
     <t xml:space="preserve">sensor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId52</t>
+  </si>
+  <si>
+    <t xml:space="preserve">time</t>
   </si>
 </sst>
 </file>
@@ -2149,7 +2155,7 @@
         <v>129</v>
       </c>
       <c r="D4" t="s">
-        <v>45</v>
+        <v>119</v>
       </c>
       <c r="E4" t="s">
         <v>46</v>
@@ -2948,13 +2954,30 @@
         <v>129</v>
       </c>
       <c r="D51" t="s">
-        <v>45</v>
+        <v>119</v>
       </c>
       <c r="E51" t="s">
         <v>46</v>
       </c>
       <c r="F51" t="s">
         <v>194</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="B52" t="s">
+        <v>195</v>
+      </c>
+      <c r="C52" t="s">
+        <v>129</v>
+      </c>
+      <c r="D52" t="s">
+        <v>119</v>
+      </c>
+      <c r="E52" t="s">
+        <v>46</v>
+      </c>
+      <c r="F52" t="s">
+        <v>196</v>
       </c>
     </row>
   </sheetData>

--- a/STM32CubeIDE/EnvSensor/TouchGFX/assets/texts/texts.xlsx
+++ b/STM32CubeIDE/EnvSensor/TouchGFX/assets/texts/texts.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13612" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13941" uniqueCount="198">
   <si>
     <t xml:space="preserve">Font</t>
   </si>
@@ -606,6 +606,9 @@
   </si>
   <si>
     <t xml:space="preserve">time</t>
+  </si>
+  <si>
+    <t xml:space="preserve">.kMGB:ErOf</t>
   </si>
 </sst>
 </file>
@@ -1964,7 +1967,7 @@
         <v>17</v>
       </c>
       <c r="G7" t="s">
-        <v>182</v>
+        <v>197</v>
       </c>
       <c r="H7"/>
       <c r="I7" t="s">

--- a/STM32CubeIDE/EnvSensor/TouchGFX/assets/texts/texts.xlsx
+++ b/STM32CubeIDE/EnvSensor/TouchGFX/assets/texts/texts.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13941" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18105" uniqueCount="202">
   <si>
     <t xml:space="preserve">Font</t>
   </si>
@@ -609,6 +609,18 @@
   </si>
   <si>
     <t xml:space="preserve">.kMGB:ErOf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;value&gt;23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId53</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId54</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId55</t>
   </si>
 </sst>
 </file>
@@ -1882,7 +1894,7 @@
         <v>87</v>
       </c>
       <c r="D5">
-        <v>52</v>
+        <v>66</v>
       </c>
       <c r="E5">
         <v>2</v>
@@ -1920,7 +1932,7 @@
         <v>87</v>
       </c>
       <c r="D6">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="E6">
         <v>2</v>
@@ -2206,7 +2218,7 @@
         <v>95</v>
       </c>
       <c r="C7" t="s">
-        <v>38</v>
+        <v>129</v>
       </c>
       <c r="D7" t="s">
         <v>58</v>
@@ -2240,7 +2252,7 @@
         <v>99</v>
       </c>
       <c r="C9" t="s">
-        <v>38</v>
+        <v>129</v>
       </c>
       <c r="D9" t="s">
         <v>45</v>
@@ -2257,7 +2269,7 @@
         <v>78</v>
       </c>
       <c r="C10" t="s">
-        <v>38</v>
+        <v>129</v>
       </c>
       <c r="D10" t="s">
         <v>58</v>
@@ -2274,7 +2286,7 @@
         <v>101</v>
       </c>
       <c r="C11" t="s">
-        <v>38</v>
+        <v>129</v>
       </c>
       <c r="D11" t="s">
         <v>45</v>
@@ -2291,7 +2303,7 @@
         <v>61</v>
       </c>
       <c r="C12" t="s">
-        <v>38</v>
+        <v>129</v>
       </c>
       <c r="D12" t="s">
         <v>58</v>
@@ -2308,7 +2320,7 @@
         <v>104</v>
       </c>
       <c r="C13" t="s">
-        <v>38</v>
+        <v>129</v>
       </c>
       <c r="D13" t="s">
         <v>45</v>
@@ -2325,7 +2337,7 @@
         <v>105</v>
       </c>
       <c r="C14" t="s">
-        <v>38</v>
+        <v>129</v>
       </c>
       <c r="D14" t="s">
         <v>58</v>
@@ -2359,7 +2371,7 @@
         <v>108</v>
       </c>
       <c r="C16" t="s">
-        <v>38</v>
+        <v>129</v>
       </c>
       <c r="D16" t="s">
         <v>45</v>
@@ -2376,7 +2388,7 @@
         <v>76</v>
       </c>
       <c r="C17" t="s">
-        <v>38</v>
+        <v>129</v>
       </c>
       <c r="D17" t="s">
         <v>58</v>
@@ -2393,7 +2405,7 @@
         <v>109</v>
       </c>
       <c r="C18" t="s">
-        <v>38</v>
+        <v>129</v>
       </c>
       <c r="D18" t="s">
         <v>45</v>
@@ -2410,7 +2422,7 @@
         <v>62</v>
       </c>
       <c r="C19" t="s">
-        <v>38</v>
+        <v>129</v>
       </c>
       <c r="D19" t="s">
         <v>58</v>
@@ -2427,7 +2439,7 @@
         <v>110</v>
       </c>
       <c r="C20" t="s">
-        <v>38</v>
+        <v>129</v>
       </c>
       <c r="D20" t="s">
         <v>45</v>
@@ -2981,6 +2993,57 @@
       </c>
       <c r="F52" t="s">
         <v>196</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="B53" t="s">
+        <v>199</v>
+      </c>
+      <c r="C53" t="s">
+        <v>129</v>
+      </c>
+      <c r="D53" t="s">
+        <v>58</v>
+      </c>
+      <c r="E53" t="s">
+        <v>46</v>
+      </c>
+      <c r="F53" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="B54" t="s">
+        <v>200</v>
+      </c>
+      <c r="C54" t="s">
+        <v>129</v>
+      </c>
+      <c r="D54" t="s">
+        <v>45</v>
+      </c>
+      <c r="E54" t="s">
+        <v>46</v>
+      </c>
+      <c r="F54" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="B55" t="s">
+        <v>201</v>
+      </c>
+      <c r="C55" t="s">
+        <v>82</v>
+      </c>
+      <c r="D55" t="s">
+        <v>58</v>
+      </c>
+      <c r="E55" t="s">
+        <v>46</v>
+      </c>
+      <c r="F55" t="s">
+        <v>59</v>
       </c>
     </row>
   </sheetData>
